--- a/PCB/BOM.xlsx
+++ b/PCB/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>atmega socket</t>
   </si>
@@ -59,12 +59,6 @@
     <t>LM317L voltage regulator</t>
   </si>
   <si>
-    <t>clk</t>
-  </si>
-  <si>
-    <t>mcu</t>
-  </si>
-  <si>
     <t>C5,C6</t>
   </si>
   <si>
@@ -80,15 +74,6 @@
     <t>C4</t>
   </si>
   <si>
-    <t>Zener</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>Vreg</t>
-  </si>
-  <si>
     <t>wire sockets</t>
   </si>
   <si>
@@ -98,18 +83,6 @@
     <t>ask eli</t>
   </si>
   <si>
-    <t>stockroom</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/LM317TG/LM317TGOS-ND/918508         (stockroom??)</t>
-  </si>
-  <si>
-    <t>stockroom??      http://www.digikey.com/product-detail/en/BZX79-C5V6,133/568-3846-1-ND/1163127</t>
-  </si>
-  <si>
-    <t>stockroom?    http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/4828-3004-CP/3M5480-ND/1133633</t>
   </si>
   <si>
@@ -143,9 +116,6 @@
     <t>http://www.digikey.com/product-detail/en/RC0603JR-07330RL/311-330GRCT-ND/729716</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/CC0805JRNPO9BN220/311-1103-1-ND/303013</t>
-  </si>
-  <si>
     <t>polarized  throughhole</t>
   </si>
   <si>
@@ -158,15 +128,6 @@
     <t>http://www.digikey.com/product-detail/en/GRM219R71E104KA01D/490-12754-1-ND/5797723</t>
   </si>
   <si>
-    <t>0805 polarized</t>
-  </si>
-  <si>
-    <t>0805 unpolar</t>
-  </si>
-  <si>
-    <t>0805  polarized</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/fairchild-semiconductor/LF353N/LF353NFS-ND/458668</t>
   </si>
   <si>
@@ -179,21 +140,9 @@
     <t>1200 ohm resistor</t>
   </si>
   <si>
-    <t>opamp  4 op amps(2 dips)</t>
-  </si>
-  <si>
-    <t>R1MAP</t>
-  </si>
-  <si>
     <t>700 ohm resistor</t>
   </si>
   <si>
-    <t>R2DIO11/12</t>
-  </si>
-  <si>
-    <t>R2 MAP  / (R1DIO11/12)</t>
-  </si>
-  <si>
     <t>"0603"</t>
   </si>
   <si>
@@ -201,13 +150,248 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/fairchild-semiconductor/LM7812CT/LM7812CTFS-ND/1923051</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>"0805"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opamp </t>
+  </si>
+  <si>
+    <t>wire harness</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer part Number</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>dip switch</t>
+  </si>
+  <si>
+    <t>3 switches</t>
+  </si>
+  <si>
+    <t>Omron Electronics Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+A6S-3101-H</t>
+  </si>
+  <si>
+    <t>Micro Commercial Co</t>
+  </si>
+  <si>
+    <t>1N4007-TP</t>
+  </si>
+  <si>
+    <t>Vishay BC Components</t>
+  </si>
+  <si>
+    <t>MAL202136471E3</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>4828-3004-CP</t>
+  </si>
+  <si>
+    <t>CTS-Frequency Controls</t>
+  </si>
+  <si>
+    <t>ATS16B</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>GCJ21BR71A106KE01L</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>C2012X8R1C105K125AE</t>
+  </si>
+  <si>
+    <t>GRM219R71E104KA01D</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>BZX79-C5V6</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>LM317TG</t>
+  </si>
+  <si>
+    <t>TE Connectivity AMP Connectors</t>
+  </si>
+  <si>
+    <t>1-1437664-4</t>
+  </si>
+  <si>
+    <t>Fairchild Semiconductor</t>
+  </si>
+  <si>
+    <t>LF353N</t>
+  </si>
+  <si>
+    <t>RC0603JR-07270RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-07820RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-07330RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07499RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-071K2L</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc.</t>
+  </si>
+  <si>
+    <t>RMCF0603FT698R</t>
+  </si>
+  <si>
+    <t>LM7812CT</t>
+  </si>
+  <si>
+    <t>Cree Inc.</t>
+  </si>
+  <si>
+    <t>C4SMF-GJS-CV0Y0792</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>ZD1</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC2     IC3</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>R4  R5   R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8   R9</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>Part Name On Schematic</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>ATMEGA328-PU</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/atmel/ATMEGA328-PU/ATMEGA328-PU-ND/2271026</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/omron-electronics-inc-emc-div/A6S-3101-H/SW1386-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT698R/RMCF0603FT698RCT-ND/1942992</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/yageo/RC0603JR-071K2L/311-1.2KGRCT-ND/729630</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/yageo/RC0603FR-07499RL/311-499HRCT-ND/730213</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/micro-commercial-co/1N4007-TP/1N4007-TPMSCT-ND/773694</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/BZX79-C5V6,133/568-3846-1-ND/1163127</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/cree-inc/C4SMF-GJS-CV0Y0792/C4SMF-GJS-CV0Y0792CT-ND/1987473</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/yageo/CC0805JRNPO9BN220/311-1103-1-ND/303013</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/cts-frequency-controls/ATS16B/CTX1085-ND/2640031</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/vishay-bc-components</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LM317TG/LM317TGOS-ND/918508</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Ammount</t>
+  </si>
+  <si>
+    <t>IC5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +406,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,15 +438,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -529,328 +735,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="106.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I7" s="4">
+        <f>H7*B7</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" ref="I8:I28" si="0">H8*B8</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
+      <c r="G27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="4">
+        <f>SUM(I7:I28)</f>
+        <v>20.22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="F1" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F14" r:id="rId7"/>
-    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="G17" r:id="rId1"/>
+    <hyperlink ref="G19" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G13" r:id="rId6"/>
+    <hyperlink ref="G20" r:id="rId7"/>
+    <hyperlink ref="G18" r:id="rId8"/>
+    <hyperlink ref="G26" r:id="rId9"/>
+    <hyperlink ref="G28" r:id="rId10"/>
+    <hyperlink ref="G27" r:id="rId11"/>
+    <hyperlink ref="G25" r:id="rId12"/>
+    <hyperlink ref="G16" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G14" r:id="rId15"/>
+    <hyperlink ref="G10" r:id="rId16"/>
+    <hyperlink ref="G9" r:id="rId17"/>
+    <hyperlink ref="G8" r:id="rId18"/>
+    <hyperlink ref="G21" r:id="rId19"/>
+    <hyperlink ref="G22" r:id="rId20"/>
+    <hyperlink ref="G23" r:id="rId21"/>
+    <hyperlink ref="G24" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>